--- a/testing/CRUDKunde_TestCases.xlsx
+++ b/testing/CRUDKunde_TestCases.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
   <si>
     <t>Testobjekt:</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Kunde editieren</t>
-  </si>
-  <si>
-    <t>Kunde löschen</t>
   </si>
   <si>
     <t>Kunde lässt sich anlegen</t>
@@ -101,6 +98,24 @@
   </si>
   <si>
     <t>Wert wird nicht akzeptiert</t>
+  </si>
+  <si>
+    <t>Kunde mit Reservierung löschen</t>
+  </si>
+  <si>
+    <t>Kunde ohne Reservierung löschen</t>
+  </si>
+  <si>
+    <t>Bestehender Kunde ohne Reservierung</t>
+  </si>
+  <si>
+    <t>Bestehender Kunde mit Reservierung</t>
+  </si>
+  <si>
+    <t>Kunde kann nicht gelöscht werden; Fehlermeldung wird angezeigt</t>
+  </si>
+  <si>
+    <t>Kunde kann zwar nicht gelöscht melden, aber es gibt eine Exception; keine Fehlermeldung wird angezeigt</t>
   </si>
 </sst>
 </file>
@@ -564,7 +579,7 @@
   <dimension ref="A1:U81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -584,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -597,7 +612,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -634,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>3</v>
@@ -660,10 +675,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="11"/>
@@ -682,10 +697,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
@@ -699,13 +714,13 @@
         <v>12</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" s="11">
         <v>1</v>
@@ -722,10 +737,10 @@
         <v>13</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="11"/>
@@ -738,13 +753,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>25</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
@@ -752,14 +767,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
-      <c r="A11" s="8"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
+    <row r="11" spans="1:21" ht="75">
+      <c r="A11" s="8">
+        <v>5</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="11">
+        <v>2</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="8"/>
